--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Task</t>
   </si>
@@ -29,30 +29,18 @@
     <t>Due Date</t>
   </si>
   <si>
-    <t>Update documentation</t>
-  </si>
-  <si>
-    <t>Fix login bug</t>
+    <t>test overwrite</t>
   </si>
   <si>
     <t>Abdullah</t>
   </si>
   <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
     <t>2025-05-25</t>
   </si>
   <si>
-    <t>2025-05-23</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -68,28 +56,16 @@
     <t>Created</t>
   </si>
   <si>
-    <t>Sprint Planning</t>
-  </si>
-  <si>
-    <t>Client Sync</t>
-  </si>
-  <si>
     <t>2025-05-20</t>
   </si>
   <si>
-    <t>2025-05-22</t>
-  </si>
-  <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>14:30</t>
-  </si>
-  <si>
     <t>https://zoom.us/123</t>
   </si>
   <si>
-    <t>2025-05-23 16:23:59</t>
+    <t>2025-05-23 16:32:54</t>
   </si>
 </sst>
 </file>
@@ -460,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,27 +461,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -515,7 +477,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -523,50 +485,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -1,104 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tasks" sheetId="1" r:id="rId1"/>
-    <sheet name="Meetings" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tasks" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meetings" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Assignee</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>test overwrite</t>
-  </si>
-  <si>
-    <t>Abdullah</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>2025-05-20</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>https://zoom.us/123</t>
-  </si>
-  <si>
-    <t>2025-05-23 16:32:54</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -113,41 +47,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -435,92 +421,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Assignee</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Due Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test overwrite</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Abdullah</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test overwrite</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Abdullah</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test overwrite</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://zoom.us/123</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-05-23 16:32:54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test overwrite</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://zoom.us/123</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-05-23 19:12:38</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-23 19:12:38</t>
+          <t>2025-05-23 19:13:44</t>
         </is>
       </c>
       <c r="F3" t="n">

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -487,7 +487,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>test overwrite</t>
+          <t>test overwritee</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-23 19:13:44</t>
+          <t>2025-05-23 19:14:18</t>
         </is>
       </c>
       <c r="F3" t="n">

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,31 @@
       </c>
       <c r="E3" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test overwritee</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Abdullah</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -611,7 +636,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-23 19:14:18</t>
+          <t>2025-05-23 19:14:51</t>
         </is>
       </c>
       <c r="F3" t="n">

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,31 @@
       </c>
       <c r="E4" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test overwritee</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abdullah</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +668,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test overwrite</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://zoom.us/123</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-05-23 19:16:26</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -1,137 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21948C29-DCBF-4654-ABEE-1E4E78BC786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tasks" sheetId="1" r:id="rId1"/>
-    <sheet name="Meetings" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tasks" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meetings" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Assignee</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>Update documentation</t>
-  </si>
-  <si>
-    <t>Fix login bug</t>
-  </si>
-  <si>
-    <t>Abdullah</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>2025-05-23</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Sprint Planning</t>
-  </si>
-  <si>
-    <t>Client Sync</t>
-  </si>
-  <si>
-    <t>2025-05-20</t>
-  </si>
-  <si>
-    <t>2025-05-22</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>https://zoom.us/123</t>
-  </si>
-  <si>
-    <t>2025-05-23 16:23:59</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -146,57 +47,100 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +178,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -268,7 +212,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,10 +246,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -479,126 +421,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Task</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Assignee</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Due Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fix login bug</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test overwritee</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Abdullah</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Topic</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Client Sync</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-05-23 16:23:59</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>test overwrite</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://zoom.us/123</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-05-23 19:21:39</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -610,7 +610,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-23 19:21:39</t>
+          <t>2025-05-23 19:22:06</t>
         </is>
       </c>
     </row>

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,31 @@
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-05-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test overwritee</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Abdullah</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2025-05-25</t>
         </is>
@@ -590,7 +615,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>test overwrite</t>
+          <t>test overwriteABC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -610,7 +635,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-23 19:22:06</t>
+          <t>2025-05-23 19:23:42</t>
         </is>
       </c>
     </row>

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-23 19:23:42</t>
+          <t>2025-05-23 19:25:34</t>
         </is>
       </c>
     </row>

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-23 19:25:34</t>
+          <t>2025-05-23 19:27:20</t>
         </is>
       </c>
     </row>

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -520,17 +520,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Abdullah</t>
+          <t>Abdullah Shah</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>To Do</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-25</t>
+          <t>2025-06-25</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +639,36 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test overwriteABC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://zoom.us/123</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-05-23 19:28:33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,31 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test overwritee</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Abdullah Shah</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2025-06-25</t>
         </is>
@@ -665,7 +690,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-23 19:28:33</t>
+          <t>2025-05-23 19:31:54</t>
         </is>
       </c>
     </row>

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -540,7 +540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test overwritee</t>
+          <t>test overwriteeDEF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,6 +694,36 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test overwriteABC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-05-20</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://zoom.us/123</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-05-23 19:37:01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,6 +556,31 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>2025-06-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dscdf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>dfdsf</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>To Do</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-05-23</t>
         </is>
       </c>
     </row>

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7876A2F9-C569-4295-BE83-8DF33CE31C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Meetings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -35,39 +41,6 @@
     <t>Created</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>f3f51709-0e25-482e-a0e1-0b767708dbee</t>
-  </si>
-  <si>
-    <t>test fetch save</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>To Do</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>2025-05-24 08:46:23</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -78,46 +51,13 @@
   </si>
   <si>
     <t>Link</t>
-  </si>
-  <si>
-    <t>Client Sync</t>
-  </si>
-  <si>
-    <t>test overwriteABC</t>
-  </si>
-  <si>
-    <t>2025-05-22</t>
-  </si>
-  <si>
-    <t>2025-05-20</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>https://zoom.us/123</t>
-  </si>
-  <si>
-    <t>2025-05-23 16:23:59</t>
-  </si>
-  <si>
-    <t>2025-05-23 19:27:20</t>
-  </si>
-  <si>
-    <t>2025-05-23 19:31:54</t>
-  </si>
-  <si>
-    <t>2025-05-23 19:37:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,13 +133,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,7 +185,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -271,6 +219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -305,9 +254,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,14 +430,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,63 +457,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -570,116 +465,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="2"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="2"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7876A2F9-C569-4295-BE83-8DF33CE31C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Meetings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +35,21 @@
     <t>Created</t>
   </si>
   <si>
+    <t>ee8eff1d-5687-4078-aca9-93064be1b736</t>
+  </si>
+  <si>
+    <t>test fetch push</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>2025-05-24 08:52:36</t>
+  </si>
+  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -51,13 +60,28 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>4bc1a0e8-c006-4711-9fcd-758da03917f6</t>
+  </si>
+  <si>
+    <t>test meeting / fetch push</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>https://meet.google.com/landing</t>
+  </si>
+  <si>
+    <t>2025-05-24 08:52:58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,21 +157,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,7 +201,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -219,7 +235,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -254,10 +269,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,16 +444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,6 +469,23 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -465,45 +494,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -68,7 +68,7 @@
     <t>test meeting / fetch push</t>
   </si>
   <si>
-    <t>10:00</t>
+    <t>10:15</t>
   </si>
   <si>
     <t>https://meet.google.com/landing</t>

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -38,18 +38,75 @@
     <t>ee8eff1d-5687-4078-aca9-93064be1b736</t>
   </si>
   <si>
+    <t>f12b9fd6-f2da-4c51-b0d6-6f8e3a87ec33</t>
+  </si>
+  <si>
+    <t>409e6c49-abd3-4da9-a926-3920201add1c</t>
+  </si>
+  <si>
+    <t>a3fde767-17da-4e98-b845-cb2aaeaaab86</t>
+  </si>
+  <si>
+    <t>6e94d14d-8604-4dae-b0b1-8f89e850f83a</t>
+  </si>
+  <si>
+    <t>c9a5c2cc-0c54-41f1-be94-0fe9118c3543</t>
+  </si>
+  <si>
     <t>test fetch push</t>
   </si>
   <si>
+    <t>test new task</t>
+  </si>
+  <si>
+    <t>test grouping</t>
+  </si>
+  <si>
+    <t>test grouping 2</t>
+  </si>
+  <si>
+    <t>test grouping 3</t>
+  </si>
+  <si>
+    <t>test changes</t>
+  </si>
+  <si>
     <t>In Progress</t>
   </si>
   <si>
+    <t>To Do</t>
+  </si>
+  <si>
     <t>2025-05-24</t>
   </si>
   <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>2025-06-24</t>
+  </si>
+  <si>
     <t>2025-05-24 08:52:36</t>
   </si>
   <si>
+    <t>2025-05-24 09:15:25</t>
+  </si>
+  <si>
+    <t>2025-05-24 09:16:25</t>
+  </si>
+  <si>
+    <t>2025-05-24 09:16:45</t>
+  </si>
+  <si>
+    <t>2025-05-24 09:18:09</t>
+  </si>
+  <si>
+    <t>2025-05-24 09:18:41</t>
+  </si>
+  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -65,16 +122,28 @@
     <t>4bc1a0e8-c006-4711-9fcd-758da03917f6</t>
   </si>
   <si>
+    <t>6b20827c-438d-46d6-b128-639a1d51fbf7</t>
+  </si>
+  <si>
     <t>test meeting / fetch push</t>
   </si>
   <si>
+    <t>one meeting deleted by the name .. fetch push/...</t>
+  </si>
+  <si>
     <t>10:15</t>
   </si>
   <si>
+    <t>10:00</t>
+  </si>
+  <si>
     <t>https://meet.google.com/landing</t>
   </si>
   <si>
     <t>2025-05-24 08:52:58</t>
+  </si>
+  <si>
+    <t>2025-05-24 09:16:02</t>
   </si>
 </sst>
 </file>
@@ -445,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,16 +545,104 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +652,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -506,16 +663,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -523,27 +680,48 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/oraican tracker.xlsx
+++ b/oraican tracker.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +53,9 @@
     <t>c9a5c2cc-0c54-41f1-be94-0fe9118c3543</t>
   </si>
   <si>
+    <t>15c484ef-ab3d-48d1-a1b8-6c0ba8fa2aaa</t>
+  </si>
+  <si>
     <t>test fetch push</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>test grouping 3</t>
   </si>
   <si>
+    <t>gtrouy[ping test by week</t>
+  </si>
+  <si>
     <t>test changes</t>
   </si>
   <si>
@@ -89,6 +95,9 @@
     <t>2025-06-24</t>
   </si>
   <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
     <t>2025-05-24 08:52:36</t>
   </si>
   <si>
@@ -105,6 +114,9 @@
   </si>
   <si>
     <t>2025-05-24 09:18:41</t>
+  </si>
+  <si>
+    <t>2025-05-24 10:49:03</t>
   </si>
   <si>
     <t>Topic</t>
@@ -514,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,19 +557,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -565,16 +577,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -582,16 +594,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -599,16 +611,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -616,16 +628,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -633,16 +645,33 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -663,16 +692,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -680,42 +709,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
